--- a/biology/Biochimie/Sésamol/Sésamol.xlsx
+++ b/biology/Biochimie/Sésamol/Sésamol.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>S%C3%A9samol</t>
+          <t>Sésamol</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le sésamol est un composé organique présent dans l'huile de sésame. Il s'agit d'un dérivé du phénol qui se présente sous forme d'un solide blanc cristallisé virant au beige sous l'effet de l'oxydation à l'air libre, faiblement soluble dans l'eau mais miscible dans la plupart des huiles. Il peut être obtenu par synthèse organique à partir de l'héliotropine.
-Il présente des propriétés antioxydantes[3] susceptibles de prévenir l'oxydation des huiles et de protéger l'organisme contre les effets nocifs des radicaux libres. Il présenterait également des propriétés antimycosiques[4].
+Il présente des propriétés antioxydantes susceptibles de prévenir l'oxydation des huiles et de protéger l'organisme contre les effets nocifs des radicaux libres. Il présenterait également des propriétés antimycosiques.
 Le sésamol intervient comme intermédiaire de synthèse de la paroxétine, un médicament antidépresseur.
 </t>
         </is>
